--- a/biology/Origine et évolution du vivant/Polyphylie/Polyphylie.xlsx
+++ b/biology/Origine et évolution du vivant/Polyphylie/Polyphylie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un groupe polyphylétique est un assemblage d'organismes excluant leur ancêtre commun le plus récent.
 </t>
@@ -511,7 +523,9 @@
           <t>Signification biologique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un tel groupe est le plus souvent défini par une ressemblance qui n'a pas été héritée d'un ancêtre commun. Ce terme désigne donc des groupes qui n'ont aucune pertinence pour retracer les liens de parenté et donc l'évolution.
 Il peut s'agir d'un terme du langage courant désignant un ensemble d'espèces présentant des caractères communs, mais regroupant de ce fait des clades d'origines variées ; un tel taxon peut également découler d'une notion scientifique invalidée par l'analyse phylogénétique voire par la systématique classique.
@@ -544,9 +558,11 @@
           <t>Propriétés mathématiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En théorie des graphes, le « degré de polyphylie » d'un groupe est le nombre minimum d'éléments d'une partition de ce groupe qui ne serait composée que de groupes monophylétiques (c'est-à-dire holophylétiques ou paraphylétiques)[1]. Un groupe monophylétique a donc un degré de polyphylie de un.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En théorie des graphes, le « degré de polyphylie » d'un groupe est le nombre minimum d'éléments d'une partition de ce groupe qui ne serait composée que de groupes monophylétiques (c'est-à-dire holophylétiques ou paraphylétiques). Un groupe monophylétique a donc un degré de polyphylie de un.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Exemples de groupes polyphylétiques :
 les pachydermes ;
